--- a/Wedding_Timeline.xlsx
+++ b/Wedding_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{24D6E675-F0C0-425D-AE61-A0439D235201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{82C530D6-28F5-4871-B841-72FC8DEED879}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10845" xr2:uid="{A4696B2F-2B86-4DFA-90E0-CD6BA0896D1F}"/>
   </bookViews>
@@ -136,12 +136,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,13 +174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +509,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,375 +534,375 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f>C2+D2</f>
         <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f>C3+D3</f>
         <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f>C4+D4</f>
         <v>0.75763888888888886</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f>C5+D5</f>
         <v>0.75972222222222219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D7" s="4">
         <f>C6+D6</f>
         <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>C7+D7</f>
         <v>0.77013888888888882</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f>C8+D8</f>
         <v>0.77222222222222214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D10" s="4">
         <f>C9+D9</f>
         <v>0.77361111111111103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f>C10+D10</f>
         <v>0.77708333333333324</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D12" s="4">
         <f>C11+D11</f>
         <v>0.77777777777777768</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <f>D14-D13</f>
         <v>3.1250000000000111E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <f>C12+D12</f>
         <v>0.78124999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.8125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D15" s="6">
         <f>C14+D14</f>
         <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D16" s="6">
         <f>C15+D15</f>
         <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <f>D18-D17</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="8">
         <f>C16+D16</f>
         <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="8">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="8">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D19" s="8">
         <f>C18+D18</f>
         <v>0.85763888888888884</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <f>C19+D19</f>
         <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="8">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D21" s="8">
         <f>C20+D20</f>
         <v>0.86319444444444438</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="8">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D22" s="8">
         <f>C21+D21</f>
         <v>0.86666666666666659</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="8">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D23" s="8">
         <f>C22+D22</f>
         <v>0.8701388888888888</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="8">
         <f>C23+D23</f>
         <v>0.87361111111111101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <f>D26-D25</f>
         <v>1.0416666666666741E-2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="8">
         <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="8">
         <v>0.95833333333333337</v>
       </c>
     </row>

--- a/Wedding_Timeline.xlsx
+++ b/Wedding_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{82C530D6-28F5-4871-B841-72FC8DEED879}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{051D6A44-3D3F-4380-A0A6-F4D05E7E67C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10845" xr2:uid="{A4696B2F-2B86-4DFA-90E0-CD6BA0896D1F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Forever</t>
+  </si>
+  <si>
+    <t>Rehearsal Dinner</t>
+  </si>
+  <si>
+    <t>Alex Farrell</t>
+  </si>
+  <si>
+    <t>Eric Davis</t>
+  </si>
+  <si>
+    <t>Cory Brewer and Katie Schott</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -176,20 +188,20 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +521,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +570,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D3" s="4">
-        <f>C2+D2</f>
+        <f t="shared" ref="D3:D13" si="0">C2+D2</f>
         <v>0.75347222222222221</v>
       </c>
     </row>
@@ -573,7 +585,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
     </row>
@@ -588,7 +600,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>0.75763888888888886</v>
       </c>
     </row>
@@ -603,7 +615,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D6" s="4">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>0.75972222222222219</v>
       </c>
     </row>
@@ -618,7 +630,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D7" s="4">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>0.76666666666666661</v>
       </c>
     </row>
@@ -633,7 +645,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D8" s="4">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>0.77013888888888882</v>
       </c>
     </row>
@@ -648,7 +660,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D9" s="4">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>0.77222222222222214</v>
       </c>
     </row>
@@ -663,7 +675,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D10" s="4">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>0.77361111111111103</v>
       </c>
     </row>
@@ -678,7 +690,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D11" s="4">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>0.77708333333333324</v>
       </c>
     </row>
@@ -693,7 +705,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D12" s="4">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777768</v>
       </c>
     </row>
@@ -709,7 +721,7 @@
         <v>3.1250000000000111E-2</v>
       </c>
       <c r="D13" s="6">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>0.78124999999999989</v>
       </c>
     </row>
@@ -798,7 +810,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D19" s="8">
-        <f>C18+D18</f>
+        <f t="shared" ref="D19:D24" si="1">C18+D18</f>
         <v>0.85763888888888884</v>
       </c>
     </row>
@@ -813,7 +825,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D20" s="8">
-        <f>C19+D19</f>
+        <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
     </row>
@@ -828,7 +840,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D21" s="8">
-        <f>C20+D20</f>
+        <f t="shared" si="1"/>
         <v>0.86319444444444438</v>
       </c>
     </row>
@@ -843,7 +855,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D22" s="8">
-        <f>C21+D21</f>
+        <f t="shared" si="1"/>
         <v>0.86666666666666659</v>
       </c>
     </row>
@@ -858,7 +870,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D23" s="8">
-        <f>C22+D22</f>
+        <f t="shared" si="1"/>
         <v>0.8701388888888888</v>
       </c>
     </row>
@@ -873,7 +885,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D24" s="8">
-        <f>C23+D23</f>
+        <f t="shared" si="1"/>
         <v>0.87361111111111101</v>
       </c>
     </row>
@@ -906,13 +918,27 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C32" s="1"/>
     </row>
   </sheetData>
